--- a/storage/app/public/import_users/2023/11/02/1698889188_template_import_users.xlsx
+++ b/storage/app/public/import_users/2023/11/02/1698889188_template_import_users.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Tên Nhân Viên</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Chi tiết</t>
   </si>
   <si>
+    <t>Trạng thái import</t>
+  </si>
+  <si>
     <t>Nguyen Van A</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>Email đã được sử dụng</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA500"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -107,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,15 +422,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:J1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,25 +461,28 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -478,7 +494,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
